--- a/Images_and_Data/Embedded_Qs/1_3_grammar_practice.xlsx
+++ b/Images_and_Data/Embedded_Qs/1_3_grammar_practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DCE94B-FF72-4558-9FA1-8A610F8E2E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62FCA2E-13E1-492E-8BC7-3142FEC20BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="840" windowWidth="18975" windowHeight="13215" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="615" yWindow="2220" windowWidth="14220" windowHeight="13215" activeTab="6" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="80">
   <si>
     <t>Correct</t>
   </si>
@@ -60,12 +60,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Leeway</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>Correct order of definitions</t>
   </si>
   <si>
@@ -81,132 +75,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>What is the key difference between a DataFrame and a Series?</t>
-  </si>
-  <si>
-    <t>A DataFrame can hold a larger number of data points</t>
-  </si>
-  <si>
-    <t>A DataFrame is in the Numpy library, but a Series is in the Pandas library</t>
-  </si>
-  <si>
-    <t>A DataFrame can have multiple columns of data, while a Series can only have one</t>
-  </si>
-  <si>
-    <t>They are both in the Pandas library, and in fact each column of a DataFrame is a Series</t>
-  </si>
-  <si>
-    <t>Yep!</t>
-  </si>
-  <si>
-    <t>There is no difference in their ability to hold data</t>
-  </si>
-  <si>
-    <t>A DataFrame is the same as an excel spreadsheet, but a Series is a Python object</t>
-  </si>
-  <si>
-    <t>They are both Python objects.  A DataFrame has a similar structure to a spreadsheet though, and we can import a spreadsheet into Colab as a DataFrame.</t>
-  </si>
-  <si>
-    <t>What is the approximate average velocity of the car?</t>
-  </si>
-  <si>
-    <t>Adjust the velocity in the code until the curve fits the data as well as possible.</t>
-  </si>
-  <si>
-    <t>Higher</t>
-  </si>
-  <si>
-    <t>About the same</t>
-  </si>
-  <si>
-    <t>Lower</t>
-  </si>
-  <si>
-    <t>Yep!  The census and UN curves have a higher slope than our fitted curve during this period.</t>
-  </si>
-  <si>
-    <t>Look at the slope of the 3 curves.  How is the slope related to average growth?</t>
-  </si>
-  <si>
-    <t>Is the average growth between 1970 and 2016 in the known data higher or lower than the average growth we calculated?</t>
-  </si>
-  <si>
-    <t>If a line of code reads 'for x in range(10,15), what are the smallest and largest values of 'x' in the loop?</t>
-  </si>
-  <si>
-    <t>Smallest: 10; Largest: 15</t>
-  </si>
-  <si>
-    <t>Smallest: 0; Largest: 15</t>
-  </si>
-  <si>
-    <t>Smallest: 10; Largest: 14</t>
-  </si>
-  <si>
-    <t>Smallest: 11; Largest: 15</t>
-  </si>
-  <si>
-    <t>Smallest: 0; Largest: 14</t>
-  </si>
-  <si>
-    <t>Yep!  The range starts at the first number, and stops one value before the second number.</t>
-  </si>
-  <si>
-    <t>Why is the peak on the plot of relative error than sharper than the peak on the absolute error plot?</t>
-  </si>
-  <si>
-    <t>It is just a matter of the different units on the y-axis</t>
-  </si>
-  <si>
-    <t>The newer data is given more weight because the index values are larger</t>
-  </si>
-  <si>
-    <t>This is mostly nonsense : )</t>
-  </si>
-  <si>
-    <t>Units won't change the shape of the plot</t>
-  </si>
-  <si>
-    <t>The lower populations in the early years mean that the relative error is smaller for a given absolute error</t>
-  </si>
-  <si>
-    <t>The lower populations in the early years mean that the relative error is larger for a given absolute error</t>
-  </si>
-  <si>
-    <t>Yep!  A 0.3 billion error is relatively larger when the average population is 3 billion than when the population is 6 billion.</t>
-  </si>
-  <si>
-    <t>Close, but not quite.</t>
-  </si>
-  <si>
-    <t>What is a good estimate for the birth rate?</t>
-  </si>
-  <si>
-    <t>You want the gray "model" line to fit the known data as closely as possible.  At this point, just "eyeball" a good approximation.</t>
-  </si>
-  <si>
-    <t>Beta will have a large effect when 'p' is very small (close to zero)</t>
-  </si>
-  <si>
-    <t>Beta will have a large effect when 'p' is very large</t>
-  </si>
-  <si>
-    <t>Beta will have a large effect when 'p' is negative</t>
-  </si>
-  <si>
-    <t>Look at the quadratic equation, and consider the effects of the parameter 'beta'.  When will 'beta' have the largest effect on the behavior of this population model?</t>
-  </si>
-  <si>
-    <t>This is good thinking: if 'p' were negative, the second term would be positive, and this would change the behavior of the model significantly.  But remember that 'p' is population: it will never be negative.</t>
-  </si>
-  <si>
-    <t>Not quite: if 'p' is very small, then 'p squared' is *really* small, and so this term will be close to zero.</t>
-  </si>
-  <si>
-    <t>Yep!  If 'p' is big, then 'p squared' is very big, and the second term will be much larger, so the model will be controlled by beta.</t>
-  </si>
-  <si>
     <t>beta' will matter more as 'p' gets larger.   Assuming that 'alpha' is positive, if 'beta' was positive, this would mean growth would get even faster as 'p' grew.  But what will happen if  'beta' is negative? (Mark all that are true)</t>
   </si>
   <si>
@@ -274,6 +142,150 @@
   </si>
   <si>
     <t>A population in this area is nearing equilibrium: no positive or negative growth.</t>
+  </si>
+  <si>
+    <t>What type of data object is the file location on the right side of line 28 ('https:….)?</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>dictionary</t>
+  </si>
+  <si>
+    <t>Yep!  The quotation marks indicate that this is a string, which is a just a series of characters that has no numerical value.</t>
+  </si>
+  <si>
+    <t>What is the meaning of the 'dot' in line 30 (pd.read…)?</t>
+  </si>
+  <si>
+    <t>It is the symbol for multiplication</t>
+  </si>
+  <si>
+    <t>It indicates that 'read_excel' is a function that is part of the pandas library</t>
+  </si>
+  <si>
+    <t>It indicates that 'read_excel' is an attribute of the pandas library</t>
+  </si>
+  <si>
+    <t>It indicates that 'read_excel' is a function</t>
+  </si>
+  <si>
+    <t>Close.  A dot *can* indicate that the thing on the right is an attribute of the thing on the left.  But 'read_excel' is a function, while an 'attribute' is a data object that is associated with the thing on the left of the dot.</t>
+  </si>
+  <si>
+    <t>The 'dot' always indicates that the 'thing' on the right is part of the 'thing' on the left of the dot.  In this case, the dot is like a folder in Windows: 'read_excel' is a function whose definition can be found in the pandas library.</t>
+  </si>
+  <si>
+    <t>What does the dot in line 31 (raw_data.US_census) mean?</t>
+  </si>
+  <si>
+    <t>It indicates that 'US_census' is a method of the data object `raw_data`</t>
+  </si>
+  <si>
+    <t>It indicates that 'US_census' is a attribute of the data object `raw_data`</t>
+  </si>
+  <si>
+    <t>It indicates that 'US_census' is a Series</t>
+  </si>
+  <si>
+    <t>Yep!  An 'attribute' is a data object that is associated with whatever type of object is to the left of the dot.  In this case, this is a Series (i.e. a data column) that is associated with the DataFrame 'raw_data'.</t>
+  </si>
+  <si>
+    <t>Close!  But because there are no parentheses after 'US_census', we can tell this is a data object not a function: that is, it is an 'attribute' of 'raw_data' rather than a 'method'</t>
+  </si>
+  <si>
+    <t>What do the parentheses on the right side of line 35 ('params_global = …') mean?</t>
+  </si>
+  <si>
+    <t>That a function is being called</t>
+  </si>
+  <si>
+    <t>That a function is being defined</t>
+  </si>
+  <si>
+    <t>That 'census' is an attribute of 'define_linear_params'</t>
+  </si>
+  <si>
+    <t>That a value named 'census' in the Series 'define_linear_params' is being accessed and assigned to the variable name 'params_global'</t>
+  </si>
+  <si>
+    <t>Yep!  The parentheses tell us that a function is being called: the line tells the computer to go follow the set of instructions defined above (in lines 6-14)</t>
+  </si>
+  <si>
+    <t>Nope!  A function definition is always indicated by the keyword 'def' (as in line 6).</t>
+  </si>
+  <si>
+    <t>What type of data object is 'params_global' in line 35?  This is a bit trickier: you need to look at the function that is being called on the right side of the line to determine this.</t>
+  </si>
+  <si>
+    <t>Dictionary</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>Nope!  What is being "returned" by the function 'define_linear_params'?</t>
+  </si>
+  <si>
+    <t>Yep!  The right side of this line calls the function 'define_linear_params'.  Whatever is 'returned' by that function is assigned to 'params_global'.  In line 14, you can see that a list is being returned (notice the square brackets in line 13!).</t>
+  </si>
+  <si>
+    <t>What does the bracket in line 8 indicate ('t_end = ….)?</t>
+  </si>
+  <si>
+    <t>A list is being created</t>
+  </si>
+  <si>
+    <t>A function is being called</t>
+  </si>
+  <si>
+    <t>A dictionary is being created</t>
+  </si>
+  <si>
+    <t>An object inside another data object is being accessed</t>
+  </si>
+  <si>
+    <t>The number (-1) is being added to 'data.index'</t>
+  </si>
+  <si>
+    <t>Square brackets can indicate that a list is being made, but when the brackets directly follow a variable name, they have another purpose.</t>
+  </si>
+  <si>
+    <t>Functions are indicated by round brackets.</t>
+  </si>
+  <si>
+    <t>Yep!  In this case, '-1' indicates that the last object in the array 'data.index' is being assigned to the variable 't_end'</t>
+  </si>
+  <si>
+    <t>In the first line of the function definition for 'create_fitted_line', what is 'params_local' called?</t>
+  </si>
+  <si>
+    <t>An attribute</t>
+  </si>
+  <si>
+    <t>An argument</t>
+  </si>
+  <si>
+    <t>A method</t>
+  </si>
+  <si>
+    <t>A function</t>
+  </si>
+  <si>
+    <t>Yep!  The argument of a function is a variable that is defined when the function is called.  In this case, the function is called in line 35, and in that line the argument 'params_local' is assigned the values of 'params_global'.  So as the instructions of the function are followed, 'params_local' will have all the values defined in 'params_global'.</t>
   </si>
 </sst>
 </file>
@@ -639,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934C48AF-819E-4283-8F6D-9ECFCE33CE5A}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +666,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -663,48 +675,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -816,10 +819,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57791D97-FA66-4511-9C06-60107C3234C0}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C3"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,26 +836,51 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>71</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -862,10 +890,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CD8C2B-D1A8-4D3F-8035-9BE809D05A5A}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,9 +905,9 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -888,37 +916,42 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -928,10 +961,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E1BC2E-64C7-4733-84BB-7AC79569B2D9}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,7 +978,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -954,46 +987,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1004,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6C7967-0C46-4F3F-B2F4-DFA8B1F9707A}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,9 +1046,9 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1029,48 +1057,59 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
+      <c r="C6" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1080,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E4A378-C52B-465E-833B-740E46756CFE}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,26 +1135,62 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1125,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7D16AA-24F2-475C-807B-39CEEE6B996C}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,9 +1214,9 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1150,37 +1225,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>50</v>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1207,7 +1284,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1218,46 +1295,46 @@
     </row>
     <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1289,74 +1366,74 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/Images_and_Data/Embedded_Qs/1_3_grammar_practice.xlsx
+++ b/Images_and_Data/Embedded_Qs/1_3_grammar_practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62FCA2E-13E1-492E-8BC7-3142FEC20BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDCD729-94F9-4A58-84B1-198839E666AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="2220" windowWidth="14220" windowHeight="13215" activeTab="6" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="2430" yWindow="1380" windowWidth="13770" windowHeight="13215" firstSheet="1" activeTab="10" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="80">
   <si>
     <t>Correct</t>
   </si>
@@ -60,90 +60,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Correct order of definitions</t>
-  </si>
-  <si>
-    <t>Definitions</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>beta' will matter more as 'p' gets larger.   Assuming that 'alpha' is positive, if 'beta' was positive, this would mean growth would get even faster as 'p' grew.  But what will happen if  'beta' is negative? (Mark all that are true)</t>
-  </si>
-  <si>
-    <t>As 'p' is very large, the 'beta' term will be larger than the 'alpha' term, and will be negative, and so the population will shrink.</t>
-  </si>
-  <si>
-    <t>If 'p' is very large, the 'beta' term will be large and negative, and the population will return to zero.</t>
-  </si>
-  <si>
-    <t>If 'p' is very large, the 'beta' term will be large and negative, and the population will eventually be negative.</t>
-  </si>
-  <si>
-    <t>If 'p' starts relatively small, the population will grow until the positive 'alpha' term balances the negative 'beta' term, and growth will stop.</t>
-  </si>
-  <si>
-    <t>Yep!  A large negative 'beta' term would mean that the growth ('Delta p') would be negative.</t>
-  </si>
-  <si>
-    <t>The population can shrink when the 'beta' term is large, but as it shrinks, the 'beta' term will become smaller too.  Since the 'alpha' term will stay positive, the population will never reach zero.</t>
-  </si>
-  <si>
-    <t>The population can shrink when the 'beta' term is large, but as it shrinks, the 'beta' term will become smaller too.  Since the 'alpha' term will stay positive, the population will never become negative.</t>
-  </si>
-  <si>
-    <t>Yep!  Early on, the 'alpha' term would be bigger, and the population would grow.  But as it did, the 'beta' term would grow quickly, until eventually the two terms were equal.</t>
-  </si>
-  <si>
-    <t>Area of the Plot</t>
-  </si>
-  <si>
-    <t>Population: 0-3 billion</t>
-  </si>
-  <si>
-    <t>Population: 3-7 billion</t>
-  </si>
-  <si>
-    <t>Population 7-10 billion</t>
-  </si>
-  <si>
-    <t>Population: 12-14 billion</t>
-  </si>
-  <si>
-    <t>Population: Above 14 billion</t>
-  </si>
-  <si>
-    <t>This section is dominated by the alpha term (growth is small but always positive)</t>
-  </si>
-  <si>
-    <t>In this section, the alpha and beta terms are about the same size (growth is very small and sometimes negative)</t>
-  </si>
-  <si>
-    <t>In this section, the alpha term is significantly bigger than the beta term (growth is large)</t>
-  </si>
-  <si>
-    <t>In this section, the beta term is bigger than the alpha term (growth is negative)</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Don't be fooled by the downward trend of the curve: the population growth here (as shown on the y-axis) is still positive and large</t>
-  </si>
-  <si>
-    <t>If the population is quite large, then it will actually decline</t>
-  </si>
-  <si>
-    <t>A population in this area is nearing equilibrium: no positive or negative growth.</t>
-  </si>
-  <si>
     <t>What type of data object is the file location on the right side of line 28 ('https:….)?</t>
   </si>
   <si>
@@ -216,9 +132,6 @@
     <t>That a value named 'census' in the Series 'define_linear_params' is being accessed and assigned to the variable name 'params_global'</t>
   </si>
   <si>
-    <t>Yep!  The parentheses tell us that a function is being called: the line tells the computer to go follow the set of instructions defined above (in lines 6-14)</t>
-  </si>
-  <si>
     <t>Nope!  A function definition is always indicated by the keyword 'def' (as in line 6).</t>
   </si>
   <si>
@@ -240,9 +153,6 @@
     <t>Nope!  What is being "returned" by the function 'define_linear_params'?</t>
   </si>
   <si>
-    <t>Yep!  The right side of this line calls the function 'define_linear_params'.  Whatever is 'returned' by that function is assigned to 'params_global'.  In line 14, you can see that a list is being returned (notice the square brackets in line 13!).</t>
-  </si>
-  <si>
     <t>What does the bracket in line 8 indicate ('t_end = ….)?</t>
   </si>
   <si>
@@ -267,9 +177,6 @@
     <t>Functions are indicated by round brackets.</t>
   </si>
   <si>
-    <t>Yep!  In this case, '-1' indicates that the last object in the array 'data.index' is being assigned to the variable 't_end'</t>
-  </si>
-  <si>
     <t>In the first line of the function definition for 'create_fitted_line', what is 'params_local' called?</t>
   </si>
   <si>
@@ -286,6 +193,99 @@
   </si>
   <si>
     <t>Yep!  The argument of a function is a variable that is defined when the function is called.  In this case, the function is called in line 35, and in that line the argument 'params_local' is assigned the values of 'params_global'.  So as the instructions of the function are followed, 'params_local' will have all the values defined in 'params_global'.</t>
+  </si>
+  <si>
+    <t>Yep!  In this case, the number in the bracket tells the computer which value in the data object to pull up.  The '-1' is a special value that points to the last object in a list; so this line indicates that the last object in the array 'data.index' should be assigned to the variable name 't_end'</t>
+  </si>
+  <si>
+    <t>Yep!  The right side of this line calls the function 'define_linear_params'.  Whatever is 'returned' by that function is assigned to 'params_global'.  In line 14, you can see that a list called `params_local` is being returned (notice the square brackets in line 13!--this tells us that a list is being created).</t>
+  </si>
+  <si>
+    <t>Yep!  The parentheses tell us that a function is being called. The right side of this line tells the computer to go follow the set of instructions defined above (in lines 6-14); the data object that is 'returned' by that function (line 14) is then assigned (with the equal sign) to the variable name 'params_global'.</t>
+  </si>
+  <si>
+    <t>In the left side of line 20, there are two sets of square brackets.  What do these mean?</t>
+  </si>
+  <si>
+    <t>Two data objects from 'results_local' are being accessed.</t>
+  </si>
+  <si>
+    <t>A list is being created and added to 'results_local'</t>
+  </si>
+  <si>
+    <t>A first value in 'params_local' is being accessed, and then this value is used to access a value in 'results_local'</t>
+  </si>
+  <si>
+    <t>Not a bad guess, but nope!</t>
+  </si>
+  <si>
+    <t>Looks reasonable, but nope!</t>
+  </si>
+  <si>
+    <t>Yep!  When you see multiple things happening in the same line, start on the right side of an equal sign if there is one, and on each side of the equal sign, start in the most inner parentheses and move outward.  So in line twenty, these things happen in this order: 1) on the right side, the 3rd item in `params_local` is accessed (`p_0`)  2) on the left, the inner brackets pull up the first item in 'params_local', which is 't_0'  3) the outer brackets access the t_0th item in 'results_local'   4)  the value of 'p_0' is stored in that t_0th location.  Whew!  All in one line!</t>
+  </si>
+  <si>
+    <t>Why is line 22 indented ('results_local[i+1]…') but not line 23 ('return…')?</t>
+  </si>
+  <si>
+    <t>Because we want line 22 to happen a each time the 'for' loop loops, but we only want line 23 to happen once.</t>
+  </si>
+  <si>
+    <t>Because line 22 should only happen once</t>
+  </si>
+  <si>
+    <t>Because line 22 is part of the function, but line 23 happens outside the function</t>
+  </si>
+  <si>
+    <t>Because line 22 is part of an 'if' clause, and will only happen if line 21 is true</t>
+  </si>
+  <si>
+    <t>Yep!  All of the lines after a 'for' line that are indented from the 'for' line will happen as many times as the loop runs (in this case, from 't_0' to 't_end').  The first line after the 'for' line that is not indented indicates the end of the 'looped' section of code.</t>
+  </si>
+  <si>
+    <t>In line 36 ('results_global'…), what type of data object is 'results_global'?</t>
+  </si>
+  <si>
+    <t>DataFrame</t>
+  </si>
+  <si>
+    <t>Nope!  Look at the object that is returned by the function on the right side of this line ('create_fitted_line()'), because that object is assigned to the variable name 'results_global'</t>
+  </si>
+  <si>
+    <t>Yep!  The right side of this line calls 'create_fitted_line()'.  In that function, a Series called 'results_local' is created in line 17.  The function returns this Series, and lin 36 assigns it a global variable name, 'results_global'.</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>loglog</t>
+  </si>
+  <si>
+    <t>figure_width</t>
+  </si>
+  <si>
+    <t>titlecolor</t>
+  </si>
+  <si>
+    <t>Yep!  This keyword allows you to create different kinds of plots, like 'line', 'scatter', and 'bar' plots.</t>
+  </si>
+  <si>
+    <t>Yep!  This keyword makes both the x and y axes logarithmic axes.</t>
+  </si>
+  <si>
+    <t>Nope!  You'd want to use 'figsize.'</t>
+  </si>
+  <si>
+    <t>Nope!  There is no control for this.</t>
+  </si>
+  <si>
+    <t>errorbars</t>
+  </si>
+  <si>
+    <t>Nope!  You'd want to use 'xerr' and/or 'yerr' to add error bars.</t>
+  </si>
+  <si>
+    <t>In line 38, the function 'plot()' is used.  As the dot suggests, this is a method associated with the data object Series.  The values in the parentheses are 'key word arguments', or 'kwargs': these are optional arguments.   Look up the documentation for 'Pandas Series Plot' on the internets.  Which of the following are valid key word arguments for 'plot()'? (mark all that are true)</t>
   </si>
 </sst>
 </file>
@@ -666,7 +666,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -693,18 +693,18 @@
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -720,7 +720,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,34 +731,64 @@
     <col min="4" max="4" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1"/>
+    <row r="1" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
+    <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
+    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
+    <row r="4" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
+    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -774,11 +804,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8704E8A-7745-4E53-A2DF-FF5FB15F2149}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -787,30 +815,71 @@
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+    <row r="1" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -836,7 +905,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -847,7 +916,7 @@
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -855,29 +924,29 @@
     </row>
     <row r="3" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -907,7 +976,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -918,7 +987,7 @@
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -926,29 +995,29 @@
     </row>
     <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -978,7 +1047,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -987,31 +1056,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -1019,7 +1088,7 @@
     </row>
     <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -1035,7 +1104,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,7 +1117,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1059,57 +1128,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1122,7 +1191,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,7 +1204,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1146,48 +1215,48 @@
     </row>
     <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -1202,7 +1271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7D16AA-24F2-475C-807B-39CEEE6B996C}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1216,7 +1285,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1227,7 +1296,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1235,18 +1304,18 @@
     </row>
     <row r="3" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -1254,7 +1323,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -1270,7 +1339,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,9 +1351,9 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1293,49 +1362,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="270" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
@@ -1353,7 +1414,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D6"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,77 +1425,59 @@
     <col min="4" max="4" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>59</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
